--- a/data_year/zb/工业/按行业分规模以上工业企业主要经济指标(2000-2002)/存货.xlsx
+++ b/data_year/zb/工业/按行业分规模以上工业企业主要经济指标(2000-2002)/存货.xlsx
@@ -1,13 +1,13 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<workbook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <workbookPr/>
   <workbookProtection/>
   <bookViews>
     <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Sheet1" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet name="Sheet1" sheetId="1" state="visible" r:id="rId1"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:AO4"/>
+  <dimension ref="B1:AO1"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -635,387 +635,6 @@
         </is>
       </c>
     </row>
-    <row r="2">
-      <c r="A2" s="1" t="inlineStr">
-        <is>
-          <t>2000年</t>
-        </is>
-      </c>
-      <c r="B2" t="n">
-        <v>737.68175</v>
-      </c>
-      <c r="C2" t="n">
-        <v>1390.61608</v>
-      </c>
-      <c r="D2" t="n">
-        <v>190.24297</v>
-      </c>
-      <c r="E2" t="n">
-        <v>0.44128</v>
-      </c>
-      <c r="F2" t="n">
-        <v>167.56262</v>
-      </c>
-      <c r="G2" t="n">
-        <v>966.24428</v>
-      </c>
-      <c r="H2" t="n">
-        <v>187.97475</v>
-      </c>
-      <c r="I2" t="n">
-        <v>379.40574</v>
-      </c>
-      <c r="J2" t="n">
-        <v>120.08614</v>
-      </c>
-      <c r="K2" t="n">
-        <v>307.04577</v>
-      </c>
-      <c r="L2" t="n">
-        <v>75.78658</v>
-      </c>
-      <c r="M2" t="n">
-        <v>101.15061</v>
-      </c>
-      <c r="N2" t="n">
-        <v>967.54188</v>
-      </c>
-      <c r="O2" t="n">
-        <v>457.30371</v>
-      </c>
-      <c r="P2" t="n">
-        <v>57.3057</v>
-      </c>
-      <c r="Q2" t="n">
-        <v>372.03929</v>
-      </c>
-      <c r="R2" t="n">
-        <v>119.22189</v>
-      </c>
-      <c r="S2" t="n">
-        <v>36.20128</v>
-      </c>
-      <c r="T2" t="n">
-        <v>182.00682</v>
-      </c>
-      <c r="U2" t="n">
-        <v>340.42144</v>
-      </c>
-      <c r="V2" t="n">
-        <v>21.63757</v>
-      </c>
-      <c r="W2" t="n">
-        <v>262.72524</v>
-      </c>
-      <c r="X2" t="n">
-        <v>230.91028</v>
-      </c>
-      <c r="Y2" t="n">
-        <v>1376.58276</v>
-      </c>
-      <c r="Z2" t="n">
-        <v>1002.96321</v>
-      </c>
-      <c r="AA2" t="n">
-        <v>241.5288</v>
-      </c>
-      <c r="AB2" t="n">
-        <v>514.68749</v>
-      </c>
-      <c r="AC2" t="n">
-        <v>103.88994</v>
-      </c>
-      <c r="AD2" t="n">
-        <v>1133.11683</v>
-      </c>
-      <c r="AE2" t="n">
-        <v>16.34073</v>
-      </c>
-      <c r="AF2" t="n">
-        <v>16034.06921</v>
-      </c>
-      <c r="AG2" t="n">
-        <v>318.76925</v>
-      </c>
-      <c r="AH2" t="n">
-        <v>502.73623</v>
-      </c>
-      <c r="AI2" t="n">
-        <v>735.88802</v>
-      </c>
-      <c r="AJ2" t="n">
-        <v>57.13397</v>
-      </c>
-      <c r="AK2" t="n">
-        <v>212.13285</v>
-      </c>
-      <c r="AL2" t="n">
-        <v>492.69879</v>
-      </c>
-      <c r="AM2" t="n">
-        <v>447.94688</v>
-      </c>
-      <c r="AN2" t="n">
-        <v>1071.31583</v>
-      </c>
-      <c r="AO2" t="n">
-        <v>27.02349</v>
-      </c>
-    </row>
-    <row r="3">
-      <c r="A3" s="1" t="inlineStr">
-        <is>
-          <t>2001年</t>
-        </is>
-      </c>
-      <c r="B3" t="n">
-        <v>736.96363</v>
-      </c>
-      <c r="C3" t="n">
-        <v>1509.07623</v>
-      </c>
-      <c r="D3" t="n">
-        <v>202.27982</v>
-      </c>
-      <c r="E3" t="n">
-        <v>0.34538</v>
-      </c>
-      <c r="F3" t="n">
-        <v>181.98775</v>
-      </c>
-      <c r="G3" t="n">
-        <v>999.59043</v>
-      </c>
-      <c r="H3" t="n">
-        <v>157.4364</v>
-      </c>
-      <c r="I3" t="n">
-        <v>427.50746</v>
-      </c>
-      <c r="J3" t="n">
-        <v>127.52809</v>
-      </c>
-      <c r="K3" t="n">
-        <v>327.85561</v>
-      </c>
-      <c r="L3" t="n">
-        <v>84.34603</v>
-      </c>
-      <c r="M3" t="n">
-        <v>111.93246</v>
-      </c>
-      <c r="N3" t="n">
-        <v>1003.53867</v>
-      </c>
-      <c r="O3" t="n">
-        <v>512.50742</v>
-      </c>
-      <c r="P3" t="n">
-        <v>55.54605</v>
-      </c>
-      <c r="Q3" t="n">
-        <v>382.53585</v>
-      </c>
-      <c r="R3" t="n">
-        <v>132.8812</v>
-      </c>
-      <c r="S3" t="n">
-        <v>32.46621</v>
-      </c>
-      <c r="T3" t="n">
-        <v>187.51288</v>
-      </c>
-      <c r="U3" t="n">
-        <v>676.45262</v>
-      </c>
-      <c r="V3" t="n">
-        <v>20.24942</v>
-      </c>
-      <c r="W3" t="n">
-        <v>256.43099</v>
-      </c>
-      <c r="X3" t="n">
-        <v>234.61207</v>
-      </c>
-      <c r="Y3" t="n">
-        <v>1359.56759</v>
-      </c>
-      <c r="Z3" t="n">
-        <v>1061.57926</v>
-      </c>
-      <c r="AA3" t="n">
-        <v>253.95346</v>
-      </c>
-      <c r="AB3" t="n">
-        <v>464.71955</v>
-      </c>
-      <c r="AC3" t="n">
-        <v>100.03164</v>
-      </c>
-      <c r="AD3" t="n">
-        <v>1159.50695</v>
-      </c>
-      <c r="AE3" t="n">
-        <v>18.00813</v>
-      </c>
-      <c r="AF3" t="n">
-        <v>16934.82049</v>
-      </c>
-      <c r="AG3" t="n">
-        <v>321.21555</v>
-      </c>
-      <c r="AH3" t="n">
-        <v>517.38973</v>
-      </c>
-      <c r="AI3" t="n">
-        <v>768.29704</v>
-      </c>
-      <c r="AJ3" t="n">
-        <v>54.41342</v>
-      </c>
-      <c r="AK3" t="n">
-        <v>230.4888</v>
-      </c>
-      <c r="AL3" t="n">
-        <v>524.85906</v>
-      </c>
-      <c r="AM3" t="n">
-        <v>464.79563</v>
-      </c>
-      <c r="AN3" t="n">
-        <v>1145.34342</v>
-      </c>
-      <c r="AO3" t="n">
-        <v>28.1126</v>
-      </c>
-    </row>
-    <row r="4">
-      <c r="A4" s="1" t="inlineStr">
-        <is>
-          <t>2002年</t>
-        </is>
-      </c>
-      <c r="B4" t="n">
-        <v>791.33794</v>
-      </c>
-      <c r="C4" t="n">
-        <v>1647.92742</v>
-      </c>
-      <c r="D4" t="n">
-        <v>215.23804</v>
-      </c>
-      <c r="E4" t="n">
-        <v>1.01923</v>
-      </c>
-      <c r="F4" t="n">
-        <v>192.00653</v>
-      </c>
-      <c r="G4" t="n">
-        <v>1047.24281</v>
-      </c>
-      <c r="H4" t="n">
-        <v>154.2079</v>
-      </c>
-      <c r="I4" t="n">
-        <v>461.17182</v>
-      </c>
-      <c r="J4" t="n">
-        <v>130.10674</v>
-      </c>
-      <c r="K4" t="n">
-        <v>357.71122</v>
-      </c>
-      <c r="L4" t="n">
-        <v>93.27124999999999</v>
-      </c>
-      <c r="M4" t="n">
-        <v>124.09813</v>
-      </c>
-      <c r="N4" t="n">
-        <v>1064.45395</v>
-      </c>
-      <c r="O4" t="n">
-        <v>527.7698</v>
-      </c>
-      <c r="P4" t="n">
-        <v>50.40601</v>
-      </c>
-      <c r="Q4" t="n">
-        <v>383.53088</v>
-      </c>
-      <c r="R4" t="n">
-        <v>135.41982</v>
-      </c>
-      <c r="S4" t="n">
-        <v>32.06613</v>
-      </c>
-      <c r="T4" t="n">
-        <v>193.04518</v>
-      </c>
-      <c r="U4" t="n">
-        <v>735.6990500000001</v>
-      </c>
-      <c r="V4" t="n">
-        <v>24.41559</v>
-      </c>
-      <c r="W4" t="n">
-        <v>271.95598</v>
-      </c>
-      <c r="X4" t="n">
-        <v>268.20624</v>
-      </c>
-      <c r="Y4" t="n">
-        <v>1506.10009</v>
-      </c>
-      <c r="Z4" t="n">
-        <v>1093.88969</v>
-      </c>
-      <c r="AA4" t="n">
-        <v>257.77839</v>
-      </c>
-      <c r="AB4" t="n">
-        <v>478.79243</v>
-      </c>
-      <c r="AC4" t="n">
-        <v>110.20854</v>
-      </c>
-      <c r="AD4" t="n">
-        <v>1176.77865</v>
-      </c>
-      <c r="AE4" t="n">
-        <v>17.93428</v>
-      </c>
-      <c r="AF4" t="n">
-        <v>17860.41041</v>
-      </c>
-      <c r="AG4" t="n">
-        <v>340.36873</v>
-      </c>
-      <c r="AH4" t="n">
-        <v>558.57226</v>
-      </c>
-      <c r="AI4" t="n">
-        <v>816.88306</v>
-      </c>
-      <c r="AJ4" t="n">
-        <v>57.98888</v>
-      </c>
-      <c r="AK4" t="n">
-        <v>254.91859</v>
-      </c>
-      <c r="AL4" t="n">
-        <v>588.71243</v>
-      </c>
-      <c r="AM4" t="n">
-        <v>465.43475</v>
-      </c>
-      <c r="AN4" t="n">
-        <v>1098.08352</v>
-      </c>
-      <c r="AO4" t="n">
-        <v>31.93473</v>
-      </c>
-    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
